--- a/openSign/src/main/webapp/excel/totalStatistics.xlsx
+++ b/openSign/src/main/webapp/excel/totalStatistics.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28530" windowHeight="8460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="초과근무" sheetId="2" r:id="rId1"/>
+    <sheet name="식대" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> ${target}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${year}년 ${month}월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -41,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>식대 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>초과시간 총계</t>
   </si>
   <si>
@@ -165,6 +158,22 @@
   </si>
   <si>
     <t>${overTimeList.cont}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식대 일평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 초과근무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 식대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,8 +233,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -263,12 +278,37 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -280,24 +320,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -309,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,14 +344,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,20 +377,17 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,199 +669,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="27.625" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="26.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="32.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="33" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31" style="6" customWidth="1"/>
+    <col min="6" max="6" width="31.875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="G4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="20.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="32.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25.625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/openSign/src/main/webapp/excel/totalStatistics.xlsx
+++ b/openSign/src/main/webapp/excel/totalStatistics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초과시간 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,6 +170,26 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식사인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${eatList.userSeq}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초과시간 일평균</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,15 +307,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -325,13 +332,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,31 +378,37 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,7 +694,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -687,34 +709,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>21</v>
+      <c r="G1" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -726,42 +748,42 @@
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -776,10 +798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -791,41 +813,44 @@
     <col min="5" max="5" width="32.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.25" style="6" customWidth="1"/>
     <col min="7" max="7" width="25.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="12" t="s">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>35</v>
+      <c r="H1" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="11" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -847,10 +872,13 @@
       <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="H3" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -870,16 +898,27 @@
       <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="H4" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
